--- a/vistas/doc/plantillaInsumos.xlsx
+++ b/vistas/doc/plantillaInsumos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kardex\vistas\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0964E403-F25C-453D-8AEA-6F26215C6256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{694D2ED9-E1DD-4A87-AA9D-B8F6617E7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,75 +40,220 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{1DE9270E-C2D6-4A24-9F13-8B338321BA08}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ejemplo, ingresa una caja de lapiz</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{DCD2E247-6E8D-475B-A331-212F2684C955}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ej: La caja de lapiz tiene 6 unidades</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{5CEE68A5-07B0-4526-A800-C5EE72252547}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ej: Si una caja de lapiz tiene 6 unidades, el valor seria 6</t>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1B0148A9-D2CC-4A97-B866-7005CB5BC432}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stock para requisición o venta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{31BE634C-F40A-4E4F-B9B4-8622E15217ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stock que ingresa a bodega por facturas o importación</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A61BA151-5E73-4246-B35F-353BAFE0A852}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+precio de adquisicion por proveedores en sus facturas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7E659C1F-B4DC-4E79-AA17-67F21A37714D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+precio para venta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BFF2DF60-0917-4C03-B60D-B1FBB7CADB51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+precio especial para venta al por mayor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FF395F09-2779-4AC4-8869-AC1CA0C1001F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ej: ingresa una caja de lapices, esta tiene 6 unidades de lapices, el valor seria: Caja, buscar que id tiene este valor y colocar el numero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{FB331A6B-F094-47B8-9AAE-DA8E8169BF21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ej: ingresa una caja de lapices, esta tiene 6 unidades de lapices, el valor seria: Unidad, buscar que id tiene este valor y colocar el numero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{48BE2CF4-40F9-4D4B-B03E-499B6AB3A81D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ej: una caja de lapices tiene 6 lapices, el valor seria: 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{60D9A62E-A9D8-4AED-97A3-7D68B264C630}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: para habilitar el insumo
+0: para que no aparezca en requisicion o venta</t>
         </r>
       </text>
     </comment>
@@ -119,55 +264,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>ID_CATEGORIA</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>OBSERVACION</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>PRECIO_COMPRA</t>
-  </si>
-  <si>
-    <t>ESTANTE</t>
-  </si>
-  <si>
-    <t>NIVEL</t>
-  </si>
-  <si>
-    <t>SECCION</t>
-  </si>
-  <si>
-    <t>PRIORIDAD</t>
-  </si>
-  <si>
-    <t>UNIDAD_ENT</t>
-  </si>
-  <si>
-    <t>UNIDAD_SAL</t>
-  </si>
-  <si>
-    <t>CONTENIDO</t>
-  </si>
-  <si>
-    <t>EJ:</t>
-  </si>
-  <si>
-    <t>SA-1</t>
-  </si>
-  <si>
-    <t>LAPICERO NEGRO</t>
-  </si>
-  <si>
-    <t>PUNTA FINA</t>
+    <t>id_categoria(INT)</t>
+  </si>
+  <si>
+    <t>codigo(VARCHAR)</t>
+  </si>
+  <si>
+    <t>descripcion(TEXT)</t>
+  </si>
+  <si>
+    <t>observacion(TEXT)</t>
+  </si>
+  <si>
+    <t>stock(INT)</t>
+  </si>
+  <si>
+    <t>stockIn(INT)</t>
+  </si>
+  <si>
+    <t>precio_compra(FLOAT)</t>
+  </si>
+  <si>
+    <t>precio_unidad(FLOAT)</t>
+  </si>
+  <si>
+    <t>precio_por_mayor(FLOAT)</t>
+  </si>
+  <si>
+    <t>estante(CHAR)</t>
+  </si>
+  <si>
+    <t>nivel(CHAR)</t>
+  </si>
+  <si>
+    <t>seccion(CHAR)</t>
+  </si>
+  <si>
+    <t>prioridad(INT)</t>
+  </si>
+  <si>
+    <t>unidad(INT)</t>
+  </si>
+  <si>
+    <t>unidadSal(INT)</t>
+  </si>
+  <si>
+    <t>contenido(INT)</t>
+  </si>
+  <si>
+    <t>habilitado(INT)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +367,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -532,111 +688,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F08D-C9D3-4F4B-9025-7CE6006A7692}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>500</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>6</v>
-      </c>
-      <c r="N1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B121">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vistas/doc/plantillaInsumos.xlsx
+++ b/vistas/doc/plantillaInsumos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kardex\vistas\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{694D2ED9-E1DD-4A87-AA9D-B8F6617E7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7DAF24-6D10-4459-86EF-BEEE08A79081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
+    <workbookView xWindow="3270" yWindow="5205" windowWidth="18000" windowHeight="9480" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -64,103 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{31BE634C-F40A-4E4F-B9B4-8622E15217ED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-stock que ingresa a bodega por facturas o importación</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A61BA151-5E73-4246-B35F-353BAFE0A852}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-precio de adquisicion por proveedores en sus facturas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7E659C1F-B4DC-4E79-AA17-67F21A37714D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-precio para venta</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{BFF2DF60-0917-4C03-B60D-B1FBB7CADB51}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-precio especial para venta al por mayor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FF395F09-2779-4AC4-8869-AC1CA0C1001F}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FF395F09-2779-4AC4-8869-AC1CA0C1001F}">
       <text>
         <r>
           <rPr>
@@ -184,31 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{FB331A6B-F094-47B8-9AAE-DA8E8169BF21}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ej: ingresa una caja de lapices, esta tiene 6 unidades de lapices, el valor seria: Unidad, buscar que id tiene este valor y colocar el numero</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{48BE2CF4-40F9-4D4B-B03E-499B6AB3A81D}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{48BE2CF4-40F9-4D4B-B03E-499B6AB3A81D}">
       <text>
         <r>
           <rPr>
@@ -232,37 +112,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{60D9A62E-A9D8-4AED-97A3-7D68B264C630}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-1: para habilitar el insumo
-0: para que no aparezca en requisicion o venta</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id_categoria(INT)</t>
   </si>
@@ -279,18 +134,6 @@
     <t>stock(INT)</t>
   </si>
   <si>
-    <t>stockIn(INT)</t>
-  </si>
-  <si>
-    <t>precio_compra(FLOAT)</t>
-  </si>
-  <si>
-    <t>precio_unidad(FLOAT)</t>
-  </si>
-  <si>
-    <t>precio_por_mayor(FLOAT)</t>
-  </si>
-  <si>
     <t>estante(CHAR)</t>
   </si>
   <si>
@@ -300,19 +143,10 @@
     <t>seccion(CHAR)</t>
   </si>
   <si>
-    <t>prioridad(INT)</t>
-  </si>
-  <si>
     <t>unidad(INT)</t>
   </si>
   <si>
-    <t>unidadSal(INT)</t>
-  </si>
-  <si>
     <t>contenido(INT)</t>
-  </si>
-  <si>
-    <t>habilitado(INT)</t>
   </si>
 </sst>
 </file>
@@ -688,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F08D-C9D3-4F4B-9025-7CE6006A7692}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,19 +534,13 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,31 +571,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B120">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
